--- a/主成分分析_190924.xlsx
+++ b/主成分分析_190924.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="23475" windowHeight="9585"/>
+    <workbookView xWindow="360" yWindow="405" windowWidth="23475" windowHeight="9585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Result_Growth period" sheetId="1" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4336,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
